--- a/GUATEMALA/Delitos/Denuncias y Mujeres Agredidas por Tipo de Violencia 2013-2017.xlsx
+++ b/GUATEMALA/Delitos/Denuncias y Mujeres Agredidas por Tipo de Violencia 2013-2017.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD CENTROAMERICA\GUATEMALA\Género\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4098F60-4955-4608-9FBA-77E7827ABDD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6433E803-B36A-4330-969F-25B2DC600114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>Denuncia por los delitos contemplados en la ley contra el femicidio y otras formas de violencia en contra de la mujer según tipo de delito 2017</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Femicidio</t>
   </si>
   <si>
-    <t xml:space="preserve">N° de denuncias </t>
-  </si>
-  <si>
     <t>Porcentaje de mujeres agredidas por hombres, según grupo de edad. Año 2017</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
   </si>
   <si>
     <t>Ignorado</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>0.3</t>
@@ -293,8 +287,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2093ED45-41E2-4E6D-B1B7-7BBFDDD78713}" name="Mujeres_Agredidas_Tipo_Violencia_GT" displayName="Mujeres_Agredidas_Tipo_Violencia_GT" ref="A46:B54" totalsRowShown="0">
-  <autoFilter ref="A46:B54" xr:uid="{321B09B5-CF70-41BA-A314-425514768C23}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2093ED45-41E2-4E6D-B1B7-7BBFDDD78713}" name="Mujeres_Agredidas_Tipo_Violencia_GT" displayName="Mujeres_Agredidas_Tipo_Violencia_GT" ref="A53:B61" totalsRowShown="0">
+  <autoFilter ref="A53:B61" xr:uid="{321B09B5-CF70-41BA-A314-425514768C23}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0718D6F0-8A44-480E-A7D0-89DE6EB34359}" name="Tipo de violencia"/>
     <tableColumn id="2" xr3:uid="{0D8F3B59-23D4-4683-A44B-AEAC42E9A519}" name="Mujeres Agredidas (%)"/>
@@ -304,8 +298,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24C22501-F39D-4755-B590-D2DFDCB26F93}" name="Mujeres_Agredidas_Edad_GT" displayName="Mujeres_Agredidas_Edad_GT" ref="A26:B42" totalsRowShown="0">
-  <autoFilter ref="A26:B42" xr:uid="{79442DFC-9ABF-4211-B7E2-129FA5E218A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24C22501-F39D-4755-B590-D2DFDCB26F93}" name="Mujeres_Agredidas_Edad_GT" displayName="Mujeres_Agredidas_Edad_GT" ref="A33:B49" totalsRowShown="0">
+  <autoFilter ref="A33:B49" xr:uid="{79442DFC-9ABF-4211-B7E2-129FA5E218A6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EAD90CB7-5656-4FC3-87FA-75E007203054}" name="Rango de Edad"/>
     <tableColumn id="2" xr3:uid="{5E6DCFD1-0997-4EC9-B124-6F7F4CDEBBF5}" name="Mujeres Agredidas (%)"/>
@@ -326,8 +320,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4022AE7B-7D7D-40DD-9AC3-A67319A197B3}" name="Denuncias_Violencia_Economica_GT" displayName="Denuncias_Violencia_Economica_GT" ref="H19:I24" totalsRowShown="0">
-  <autoFilter ref="H19:I24" xr:uid="{4D450C9A-350E-4FEC-8729-17365E1BEA08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4022AE7B-7D7D-40DD-9AC3-A67319A197B3}" name="Denuncias_Violencia_Economica_GT" displayName="Denuncias_Violencia_Economica_GT" ref="A24:B29" totalsRowShown="0">
+  <autoFilter ref="A24:B29" xr:uid="{4D450C9A-350E-4FEC-8729-17365E1BEA08}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AD7EC6AE-C987-4E22-96FE-FDC17722D407}" name="Año"/>
     <tableColumn id="2" xr3:uid="{9637593D-36B8-461B-A3B2-462522DDE90C}" name="Denuncias (N°)"/>
@@ -337,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2D2597E1-1530-438C-AFB1-3EC3A4C578CC}" name="Denuncias_Femicidio_GT" displayName="Denuncias_Femicidio_GT" ref="H11:I15" totalsRowShown="0">
-  <autoFilter ref="H11:I15" xr:uid="{5872495E-D15D-44EA-A5FA-4F624B69CB85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2D2597E1-1530-438C-AFB1-3EC3A4C578CC}" name="Denuncias_Femicidio_GT" displayName="Denuncias_Femicidio_GT" ref="A15:B19" totalsRowShown="0">
+  <autoFilter ref="A15:B19" xr:uid="{5872495E-D15D-44EA-A5FA-4F624B69CB85}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{FCAEE57C-EEAB-48A2-96E9-8EA7511FF039}" name="Año"/>
     <tableColumn id="2" xr3:uid="{D7D4AE2A-9D21-4DA4-861E-BBA09C4961AB}" name="Denuncias (N°)"/>
@@ -610,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +617,7 @@
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,15 +629,15 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -651,444 +645,388 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>5849</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>11971</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>18211</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>10262</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>679</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12">
-        <v>2014</v>
-      </c>
-      <c r="I12">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13">
-        <v>2015</v>
-      </c>
-      <c r="I13">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="H14">
-        <v>2016</v>
-      </c>
-      <c r="I14">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <v>2017</v>
-      </c>
-      <c r="I15">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2014</v>
+      </c>
       <c r="B16">
-        <v>2014</v>
-      </c>
-      <c r="C16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2015</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
-      <c r="E16">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
       </c>
       <c r="B17">
         <v>209</v>
       </c>
-      <c r="C17">
-        <v>209</v>
-      </c>
-      <c r="D17">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
         <v>210</v>
       </c>
-      <c r="E17">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H20">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>2013</v>
       </c>
-      <c r="I20">
+      <c r="B25">
         <v>560</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>2013</v>
-      </c>
-      <c r="C21">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2014</v>
       </c>
-      <c r="D21">
+      <c r="B26">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>2015</v>
       </c>
-      <c r="E21">
+      <c r="B27">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2016</v>
       </c>
-      <c r="F21">
+      <c r="B28">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>2017</v>
       </c>
-      <c r="H21">
-        <v>2014</v>
-      </c>
-      <c r="I21">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B29">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22">
-        <v>560</v>
-      </c>
-      <c r="C22">
-        <v>438</v>
-      </c>
-      <c r="D22">
-        <v>492</v>
-      </c>
-      <c r="E22">
-        <v>384</v>
-      </c>
-      <c r="F22">
-        <v>305</v>
-      </c>
-      <c r="H22">
-        <v>2015</v>
-      </c>
-      <c r="I22">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H23">
-        <v>2016</v>
-      </c>
-      <c r="I23">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H24">
-        <v>2017</v>
-      </c>
-      <c r="I24">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>50</v>
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s">
-        <v>42</v>
+      <c r="A51" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
         <v>38</v>
-      </c>
-      <c r="B54" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
